--- a/results/Lags_table.xlsx
+++ b/results/Lags_table.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>cteb_v0_a0_b0</t>
+          <t>cdwa_v0_a0_b0</t>
         </is>
       </c>
     </row>
@@ -444,22 +444,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OD1</t>
+          <t>density1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>density2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>d_OD1</t>
+          <t>density3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>d_N1</t>
+          <t>density4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>density1_f</t>
         </is>
       </c>
     </row>
@@ -468,20 +473,23 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-460</v>
+        <v>220</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>-1020</v>
       </c>
       <c r="D4" t="n">
-        <v>-1170</v>
+        <v>-830</v>
       </c>
       <c r="E4" t="n">
-        <v>730</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w2_C4_r0.bag</t>
+        <v>-600</v>
+      </c>
+      <c r="F4" t="n">
+        <v>830</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C4_r0.bag</t>
         </is>
       </c>
     </row>
@@ -490,20 +498,23 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
+        <v>-620</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1490</v>
       </c>
-      <c r="C5" t="n">
-        <v>-40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1490</v>
-      </c>
-      <c r="E5" t="n">
-        <v>650</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w2_C4_r1.bag</t>
+      <c r="F5" t="n">
+        <v>-170</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C4_r1.bag</t>
         </is>
       </c>
     </row>
@@ -512,20 +523,23 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>-660</v>
+        <v>-390</v>
       </c>
       <c r="C6" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1360</v>
+        <v>600</v>
       </c>
       <c r="E6" t="n">
-        <v>600</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w2_C4_r2.bag</t>
+        <v>840</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C4_r2.bag</t>
         </is>
       </c>
     </row>
@@ -534,20 +548,23 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
+        <v>-840</v>
+      </c>
+      <c r="C7" t="n">
+        <v>770</v>
+      </c>
+      <c r="D7" t="n">
         <v>1490</v>
       </c>
-      <c r="C7" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-1200</v>
-      </c>
       <c r="E7" t="n">
-        <v>570</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w2_C4_r3.bag</t>
+        <v>1490</v>
+      </c>
+      <c r="F7" t="n">
+        <v>660</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C4_r3.bag</t>
         </is>
       </c>
     </row>
@@ -556,20 +573,23 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>-420</v>
+        <v>660</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>1490</v>
       </c>
       <c r="D8" t="n">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="E8" t="n">
-        <v>860</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w2_C8_r0.bag</t>
+        <v>-1500</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C4_r4.bag</t>
         </is>
       </c>
     </row>
@@ -578,20 +598,23 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>-520</v>
+        <v>-530</v>
       </c>
       <c r="C9" t="n">
-        <v>-210</v>
+        <v>-340</v>
       </c>
       <c r="D9" t="n">
-        <v>1260</v>
+        <v>-1500</v>
       </c>
       <c r="E9" t="n">
-        <v>510</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w2_C8_r1.bag</t>
+        <v>1490</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C8_r0.bag</t>
         </is>
       </c>
     </row>
@@ -600,20 +623,23 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>1030</v>
+        <v>-430</v>
       </c>
       <c r="C10" t="n">
-        <v>-20</v>
+        <v>-530</v>
       </c>
       <c r="D10" t="n">
-        <v>-1390</v>
+        <v>-690</v>
       </c>
       <c r="E10" t="n">
-        <v>660</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w2_C8_r2.bag</t>
+        <v>-1500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C8_r1.bag</t>
         </is>
       </c>
     </row>
@@ -622,20 +648,23 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>-350</v>
+        <v>-70</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>-10</v>
       </c>
       <c r="D11" t="n">
-        <v>-1330</v>
+        <v>350</v>
       </c>
       <c r="E11" t="n">
-        <v>950</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w2_C8_r3.bag</t>
+        <v>580</v>
+      </c>
+      <c r="F11" t="n">
+        <v>200</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C8_r2.bag</t>
         </is>
       </c>
     </row>
@@ -644,20 +673,23 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>-560</v>
+        <v>-630</v>
       </c>
       <c r="C12" t="n">
-        <v>-90</v>
+        <v>-530</v>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>-1120</v>
       </c>
       <c r="E12" t="n">
-        <v>630</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w3_C4_r0.bag</t>
+        <v>-1500</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-130</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C8_r3.bag</t>
         </is>
       </c>
     </row>
@@ -666,20 +698,23 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>-100</v>
+        <v>-570</v>
       </c>
       <c r="C13" t="n">
-        <v>110</v>
+        <v>-560</v>
       </c>
       <c r="D13" t="n">
-        <v>-1270</v>
+        <v>-360</v>
       </c>
       <c r="E13" t="n">
-        <v>1080</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w3_C4_r1.bag</t>
+        <v>280</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w3_C8_r4.bag</t>
         </is>
       </c>
     </row>
@@ -688,20 +723,23 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>-490</v>
+        <v>-140</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1500</v>
+        <v>1080</v>
       </c>
       <c r="E14" t="n">
-        <v>560</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w3_C4_r2.bag</t>
+        <v>1210</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C4_r0.bag</t>
         </is>
       </c>
     </row>
@@ -710,20 +748,23 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>-440</v>
+        <v>-490</v>
       </c>
       <c r="C15" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1180</v>
+        <v>1490</v>
       </c>
       <c r="E15" t="n">
-        <v>550</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w3_C4_r3.bag</t>
+        <v>1120</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C4_r1.bag</t>
         </is>
       </c>
     </row>
@@ -732,20 +773,23 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>-360</v>
+        <v>-340</v>
       </c>
       <c r="C16" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1500</v>
+        <v>770</v>
       </c>
       <c r="E16" t="n">
-        <v>880</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w3_C8_r0.bag</t>
+        <v>990</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C4_r2.bag</t>
         </is>
       </c>
     </row>
@@ -754,20 +798,23 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>-570</v>
+        <v>-450</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1490</v>
+        <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>800</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w3_C8_r1.bag</t>
+        <v>1160</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C4_r3.bag</t>
         </is>
       </c>
     </row>
@@ -776,20 +823,23 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>-560</v>
+        <v>-380</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>160</v>
+        <v>630</v>
       </c>
       <c r="E18" t="n">
-        <v>680</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w3_C8_r2.bag</t>
+        <v>1010</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C4_r4.bag</t>
         </is>
       </c>
     </row>
@@ -798,20 +848,23 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>-440</v>
+        <v>-610</v>
       </c>
       <c r="C19" t="n">
-        <v>70</v>
+        <v>-630</v>
       </c>
       <c r="D19" t="n">
-        <v>-1500</v>
+        <v>-530</v>
       </c>
       <c r="E19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w3_C8_r3.bag</t>
+        <v>-20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C8_r0.bag</t>
         </is>
       </c>
     </row>
@@ -820,20 +873,23 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>-570</v>
+        <v>1490</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>1490</v>
       </c>
       <c r="D20" t="n">
-        <v>-1290</v>
+        <v>630</v>
       </c>
       <c r="E20" t="n">
-        <v>580</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w4_C4_r0.bag</t>
+        <v>950</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C8_r1.bag</t>
         </is>
       </c>
     </row>
@@ -842,20 +898,23 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>-1500</v>
+        <v>-410</v>
       </c>
       <c r="C21" t="n">
-        <v>120</v>
+        <v>-40</v>
       </c>
       <c r="D21" t="n">
-        <v>-1210</v>
+        <v>900</v>
       </c>
       <c r="E21" t="n">
-        <v>950</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w4_C4_r1.bag</t>
+        <v>1220</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C8_r2.bag</t>
         </is>
       </c>
     </row>
@@ -864,20 +923,23 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>-450</v>
+        <v>-610</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-430</v>
       </c>
       <c r="D22" t="n">
-        <v>1400</v>
+        <v>-130</v>
       </c>
       <c r="E22" t="n">
         <v>690</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w4_C4_r2.bag</t>
+      <c r="F22" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C8_r3.bag</t>
         </is>
       </c>
     </row>
@@ -886,128 +948,46 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
+        <v>-350</v>
+      </c>
+      <c r="C23" t="n">
         <v>-100</v>
       </c>
-      <c r="C23" t="n">
-        <v>10</v>
-      </c>
       <c r="D23" t="n">
-        <v>1490</v>
+        <v>160</v>
       </c>
       <c r="E23" t="n">
-        <v>620</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w4_C4_r3.bag</t>
+        <v>130</v>
+      </c>
+      <c r="F23" t="n">
+        <v>130</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>exp2_cdwa_v0_a0_b0_w4_C8_r4.bag</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>20</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>-590</v>
+        <v>-274</v>
       </c>
       <c r="C24" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="D24" t="n">
-        <v>430</v>
+        <v>194</v>
       </c>
       <c r="E24" t="n">
-        <v>920</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w4_C8_r0.bag</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>21</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-270</v>
-      </c>
-      <c r="C25" t="n">
-        <v>230</v>
-      </c>
-      <c r="D25" t="n">
-        <v>740</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w4_C8_r1.bag</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>22</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-540</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-1280</v>
-      </c>
-      <c r="E26" t="n">
-        <v>690</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w4_C8_r2.bag</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>23</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-580</v>
-      </c>
-      <c r="C27" t="n">
-        <v>40</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-1500</v>
-      </c>
-      <c r="E27" t="n">
-        <v>740</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>exp1_cteb_v0_a0_b0_w4_C8_r3.bag</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-271</v>
-      </c>
-      <c r="C28" t="n">
-        <v>18</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-516</v>
-      </c>
-      <c r="E28" t="n">
-        <v>746</v>
+        <v>476</v>
+      </c>
+      <c r="F24" t="n">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/results/Lags_table.xlsx
+++ b/results/Lags_table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,74 +53,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>cdwa_v0_a0_b0</t>
+          <t>cdwa1</t>
         </is>
       </c>
     </row>
@@ -473,23 +405,23 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>-1020</v>
+        <v>-630</v>
       </c>
       <c r="D4" t="n">
-        <v>-830</v>
+        <v>-960</v>
       </c>
       <c r="E4" t="n">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="F4" t="n">
-        <v>830</v>
+        <v>770</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C4_r0.bag</t>
+          <t>exp3_cdwa1_w3_C4_r0.bag</t>
         </is>
       </c>
     </row>
@@ -498,23 +430,23 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>-620</v>
+        <v>-900</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1280</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E5" t="n">
         <v>1490</v>
       </c>
       <c r="F5" t="n">
-        <v>-170</v>
+        <v>-430</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C4_r1.bag</t>
+          <t>exp3_cdwa1_w3_C4_r1.bag</t>
         </is>
       </c>
     </row>
@@ -523,23 +455,23 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>-390</v>
+        <v>-380</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="E6" t="n">
-        <v>840</v>
+        <v>790</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C4_r2.bag</t>
+          <t>exp3_cdwa1_w3_C4_r2.bag</t>
         </is>
       </c>
     </row>
@@ -548,23 +480,23 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>-840</v>
+        <v>700</v>
       </c>
       <c r="C7" t="n">
-        <v>770</v>
+        <v>1320</v>
       </c>
       <c r="D7" t="n">
         <v>1490</v>
       </c>
       <c r="E7" t="n">
-        <v>1490</v>
+        <v>720</v>
       </c>
       <c r="F7" t="n">
-        <v>660</v>
+        <v>1490</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C4_r3.bag</t>
+          <t>exp3_cdwa1_w3_C4_r3.bag</t>
         </is>
       </c>
     </row>
@@ -573,23 +505,23 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>660</v>
+        <v>-390</v>
       </c>
       <c r="C8" t="n">
-        <v>1490</v>
+        <v>-20</v>
       </c>
       <c r="D8" t="n">
-        <v>750</v>
+        <v>170</v>
       </c>
       <c r="E8" t="n">
-        <v>-1500</v>
+        <v>330</v>
       </c>
       <c r="F8" t="n">
-        <v>1280</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C4_r4.bag</t>
+          <t>exp3_cdwa1_w3_C4_r4.bag</t>
         </is>
       </c>
     </row>
@@ -598,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>-530</v>
+        <v>-540</v>
       </c>
       <c r="C9" t="n">
-        <v>-340</v>
+        <v>-360</v>
       </c>
       <c r="D9" t="n">
         <v>-1500</v>
@@ -610,11 +542,11 @@
         <v>1490</v>
       </c>
       <c r="F9" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C8_r0.bag</t>
+          <t>exp3_cdwa1_w3_C8_r0.bag</t>
         </is>
       </c>
     </row>
@@ -623,23 +555,23 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-530</v>
+        <v>-250</v>
       </c>
       <c r="D10" t="n">
-        <v>-690</v>
+        <v>-230</v>
       </c>
       <c r="E10" t="n">
-        <v>-1500</v>
+        <v>-660</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C8_r1.bag</t>
+          <t>exp3_cdwa1_w3_C8_r1.bag</t>
         </is>
       </c>
     </row>
@@ -648,23 +580,23 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>-70</v>
+        <v>-230</v>
       </c>
       <c r="C11" t="n">
-        <v>-10</v>
+        <v>-250</v>
       </c>
       <c r="D11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="F11" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C8_r2.bag</t>
+          <t>exp3_cdwa1_w3_C8_r2.bag</t>
         </is>
       </c>
     </row>
@@ -673,23 +605,23 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>-630</v>
+        <v>-620</v>
       </c>
       <c r="C12" t="n">
-        <v>-530</v>
+        <v>-490</v>
       </c>
       <c r="D12" t="n">
-        <v>-1120</v>
+        <v>-1140</v>
       </c>
       <c r="E12" t="n">
         <v>-1500</v>
       </c>
       <c r="F12" t="n">
-        <v>-130</v>
+        <v>-140</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C8_r3.bag</t>
+          <t>exp3_cdwa1_w3_C8_r3.bag</t>
         </is>
       </c>
     </row>
@@ -698,23 +630,23 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>-570</v>
+        <v>-560</v>
       </c>
       <c r="C13" t="n">
-        <v>-560</v>
+        <v>-530</v>
       </c>
       <c r="D13" t="n">
-        <v>-360</v>
+        <v>-440</v>
       </c>
       <c r="E13" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F13" t="n">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w3_C8_r4.bag</t>
+          <t>exp3_cdwa1_w3_C8_r4.bag</t>
         </is>
       </c>
     </row>
@@ -723,23 +655,23 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>-140</v>
+        <v>-680</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-840</v>
       </c>
       <c r="D14" t="n">
-        <v>1080</v>
+        <v>-1500</v>
       </c>
       <c r="E14" t="n">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C4_r0.bag</t>
+          <t>exp3_cdwa1_w4_C4_r0.bag</t>
         </is>
       </c>
     </row>
@@ -748,23 +680,23 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>-490</v>
+        <v>1490</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1490</v>
       </c>
       <c r="D15" t="n">
         <v>1490</v>
       </c>
       <c r="E15" t="n">
-        <v>1120</v>
+        <v>1360</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C4_r1.bag</t>
+          <t>exp3_cdwa1_w4_C4_r1.bag</t>
         </is>
       </c>
     </row>
@@ -773,23 +705,23 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>-340</v>
+        <v>-220</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>770</v>
+        <v>940</v>
       </c>
       <c r="E16" t="n">
-        <v>990</v>
+        <v>1290</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C4_r2.bag</t>
+          <t>exp3_cdwa1_w4_C4_r2.bag</t>
         </is>
       </c>
     </row>
@@ -798,23 +730,23 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>-450</v>
+        <v>-1500</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="D17" t="n">
-        <v>200</v>
+        <v>1490</v>
       </c>
       <c r="E17" t="n">
-        <v>1160</v>
+        <v>1490</v>
       </c>
       <c r="F17" t="n">
         <v>-1500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C4_r3.bag</t>
+          <t>exp3_cdwa1_w4_C4_r3.bag</t>
         </is>
       </c>
     </row>
@@ -823,23 +755,23 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>-380</v>
+        <v>-420</v>
       </c>
       <c r="C18" t="n">
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E18" t="n">
-        <v>1010</v>
+        <v>890</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C4_r4.bag</t>
+          <t>exp3_cdwa1_w4_C4_r4.bag</t>
         </is>
       </c>
     </row>
@@ -848,23 +780,23 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>-610</v>
+        <v>-640</v>
       </c>
       <c r="C19" t="n">
-        <v>-630</v>
+        <v>-660</v>
       </c>
       <c r="D19" t="n">
-        <v>-530</v>
+        <v>-600</v>
       </c>
       <c r="E19" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>-120</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C8_r0.bag</t>
+          <t>exp3_cdwa1_w4_C8_r0.bag</t>
         </is>
       </c>
     </row>
@@ -879,17 +811,17 @@
         <v>1490</v>
       </c>
       <c r="D20" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="E20" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C8_r1.bag</t>
+          <t>exp3_cdwa1_w4_C8_r1.bag</t>
         </is>
       </c>
     </row>
@@ -901,20 +833,20 @@
         <v>-410</v>
       </c>
       <c r="C21" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="D21" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E21" t="n">
-        <v>1220</v>
+        <v>1120</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C8_r2.bag</t>
+          <t>exp3_cdwa1_w4_C8_r2.bag</t>
         </is>
       </c>
     </row>
@@ -923,23 +855,23 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>-610</v>
+        <v>-600</v>
       </c>
       <c r="C22" t="n">
-        <v>-430</v>
+        <v>-450</v>
       </c>
       <c r="D22" t="n">
-        <v>-130</v>
+        <v>-160</v>
       </c>
       <c r="E22" t="n">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="F22" t="n">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C8_r3.bag</t>
+          <t>exp3_cdwa1_w4_C8_r3.bag</t>
         </is>
       </c>
     </row>
@@ -948,23 +880,23 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>-350</v>
+        <v>-460</v>
       </c>
       <c r="C23" t="n">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="D23" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>exp2_cdwa_v0_a0_b0_w4_C8_r4.bag</t>
+          <t>exp3_cdwa1_w4_C8_r4.bag</t>
         </is>
       </c>
     </row>
@@ -975,19 +907,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-274</v>
+        <v>-236</v>
       </c>
       <c r="C24" t="n">
-        <v>-20</v>
+        <v>-162</v>
       </c>
       <c r="D24" t="n">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="F24" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
